--- a/DokkanKits/31.xlsx
+++ b/DokkanKits/31.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tyler\Documents\DokkanAnalysis\DokkanKits\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{683BA9B0-6A72-4E95-BC69-A1FFBB8E9646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26CF77A2-8CD5-48AD-8613-C55C80824A28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="210" windowWidth="11363" windowHeight="14152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="368" yWindow="368" windowWidth="11415" windowHeight="14362" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -1169,8 +1169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1298,7 +1298,7 @@
         <v>23</v>
       </c>
       <c r="B12">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.45">
